--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/07012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/07012026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miércoles, 7 de enero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Mateo
-Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
-*Oración de la mañana*
-Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
-Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
-Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
-En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 7 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
+*Oración de la mañana*
+Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
+Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
+Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
+En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 7 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
+*Oración de la mañana*
+Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
+Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
+Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
+En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 7 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
+*Oración de la mañana*
+Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
+Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
+Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
+En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 7 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
+*Oración de la mañana*
+Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
+Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
+Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
+En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 7 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
+*Oración de la mañana*
+Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
+Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
+Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
+En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>miércoles, 7 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
+*Oración de la mañana*
+Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
+Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
+Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
+En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>miércoles, 7 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
+*Oración de la mañana*
+Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
+Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
+Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
+En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>miércoles, 7 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
+*Oración de la mañana*
+Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
+Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
+Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
+En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/07012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/07012026.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,8 +529,6 @@
           <t>Alejandro</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>56994148421</t>
@@ -574,8 +572,6 @@
           <t>Omar</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>56973223070</t>
@@ -619,8 +615,6 @@
           <t>Mama</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>56971748545</t>
@@ -664,8 +658,6 @@
           <t>Victor</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>56931123918</t>
@@ -709,8 +701,6 @@
           <t>Yume</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>584146711206</t>
@@ -759,7 +749,6 @@
           <t>González</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>56972028078</t>
@@ -808,7 +797,6 @@
           <t>LUCES</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>34672527995</t>
@@ -857,7 +845,6 @@
           <t>Gonzalez</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>56967970252</t>
@@ -895,6 +882,55 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>miércoles, 7 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Marcos 6, 45-52 En aquel tiempo, después de la multiplicación de los panes, Jesús premió a sus discípulos a que subieran a la barca y se dirigieran a Betsaida, mientras él despedía a la gente. Después de despedirlos, se retiró al monte a orar. Entrada la noche, la barca estaba en medio del lago y Jesús, solo, en tierra. Viendo los trabajos con que avanzaban, pues el viento les era contrario, se dirigió a ellos caminando sobre el agua, poco antes del amanecer, y parecía que iba a pasar de largo. Al verlo andar sobre el agua, ellos creyeron que era un fantasma y se pusieron a gritar, porque todos lo habían visto y estaban espantados. Pero él les habló enseguida y les dijo: “¡Ánimo! Soy yo; no teman”. Subió a la barca con ellos y se calmó el viento. Todos estaban llenos de espanto y es que no habían entendido el episodio de los panes, pues tenían la mente embotada.
+*Oración de la mañana*
+Querido Jesús, en el silencio de este nuevo día, busco tu rostro. Tal como hiciste con tus discípulos en el lago, te pido que vengas a mi encuentro en las tormentas de mi vida. En los momentos de temor y confusión, ayúdame a reconocerte, a saber que estás conmigo. Fortalece mi fe y lléname de valor para enfrentar los desafíos de este día.
+Amado Padre, te agradezco por regalarme un nuevo día. Gracias por tu presencia constante en mi vida, incluso cuando no la entiendo completamente, como los discípulos con el milagro de los panes. Te pido que me ayudes a mantener siempre abiertos los ojos y el corazón a tus maravillas y misterios.
+Espíritu Santo, te invoco en este amanecer. Ilumina mi mente y mi corazón y libéralos de cualquier embotamiento. Que pueda entender y apreciar cada momento de gracia que me ofreces hoy. Guíame a lo largo de este día, para que cada paso que de sea un reflejo de tu amor y bondad.
+En la Trinidad Santa confío, y con esperanza y fe, abro mi corazón a este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
